--- a/datasets/caracteristicas.xlsx
+++ b/datasets/caracteristicas.xlsx
@@ -492,10 +492,8 @@
       <c r="G2" t="n">
         <v>9.579976817214508</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +518,8 @@
       <c r="G3" t="n">
         <v>8.929602527914739</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -548,10 +544,8 @@
       <c r="G4" t="n">
         <v>11.57262216748264</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -576,10 +570,8 @@
       <c r="G5" t="n">
         <v>10.7155721820814</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -604,10 +596,8 @@
       <c r="G6" t="n">
         <v>10.03156966404321</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +622,8 @@
       <c r="G7" t="n">
         <v>6.308509425599922</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -660,10 +648,8 @@
       <c r="G8" t="n">
         <v>11.94524876314043</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -688,10 +674,8 @@
       <c r="G9" t="n">
         <v>12.88180856151042</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +700,8 @@
       <c r="G10" t="n">
         <v>12.71454710151042</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +726,8 @@
       <c r="G11" t="n">
         <v>11.14467341666474</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -772,10 +752,8 @@
       <c r="G12" t="n">
         <v>11.24999999465278</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +778,8 @@
       <c r="G13" t="n">
         <v>14.10314372879437</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -828,10 +804,8 @@
       <c r="G14" t="n">
         <v>10.58771926303819</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +830,8 @@
       <c r="G15" t="n">
         <v>7.471011331319446</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +856,8 @@
       <c r="G16" t="n">
         <v>11.22630551620177</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -912,10 +882,8 @@
       <c r="G17" t="n">
         <v>9.911240656103395</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -940,10 +908,8 @@
       <c r="G18" t="n">
         <v>10.28622118914931</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -968,10 +934,8 @@
       <c r="G19" t="n">
         <v>7.340114947677468</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -996,10 +960,8 @@
       <c r="G20" t="n">
         <v>7.489902510208332</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1024,10 +986,8 @@
       <c r="G21" t="n">
         <v>9.556497146728397</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1052,10 +1012,8 @@
       <c r="G22" t="n">
         <v>9.392409006103394</v>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1080,10 +1038,8 @@
       <c r="G23" t="n">
         <v>8.177638174722221</v>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1108,10 +1064,8 @@
       <c r="G24" t="n">
         <v>8.541710362899304</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1136,10 +1090,8 @@
       <c r="G25" t="n">
         <v>9.432728207065971</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1164,10 +1116,8 @@
       <c r="G26" t="n">
         <v>9.364505469722225</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1192,10 +1142,8 @@
       <c r="G27" t="n">
         <v>5.509825773695987</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1220,10 +1168,8 @@
       <c r="G28" t="n">
         <v>7.715668688871527</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1248,10 +1194,8 @@
       <c r="G29" t="n">
         <v>9.665884395084877</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1276,10 +1220,8 @@
       <c r="G30" t="n">
         <v>9.541331026479552</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1304,10 +1246,8 @@
       <c r="G31" t="n">
         <v>6.870259759951775</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1332,10 +1272,8 @@
       <c r="G32" t="n">
         <v>7.928879957152778</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1360,10 +1298,8 @@
       <c r="G33" t="n">
         <v>8.203731770831403</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1388,10 +1324,8 @@
       <c r="G34" t="n">
         <v>7.113166000486111</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1416,10 +1350,8 @@
       <c r="G35" t="n">
         <v>7.831247917760418</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1444,10 +1376,8 @@
       <c r="G36" t="n">
         <v>8.512273563541665</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1472,10 +1402,8 @@
       <c r="G37" t="n">
         <v>8.86210617798611</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1500,10 +1428,8 @@
       <c r="G38" t="n">
         <v>10.70053279076389</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1528,10 +1454,8 @@
       <c r="G39" t="n">
         <v>7.691811968038193</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1556,10 +1480,8 @@
       <c r="G40" t="n">
         <v>9.233577259228396</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1584,10 +1506,8 @@
       <c r="G41" t="n">
         <v>7.25579295095486</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1612,10 +1532,8 @@
       <c r="G42" t="n">
         <v>10.69279846123264</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1640,10 +1558,8 @@
       <c r="G43" t="n">
         <v>10.79374781527006</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1668,10 +1584,8 @@
       <c r="G44" t="n">
         <v>11.59376906583333</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1696,10 +1610,8 @@
       <c r="G45" t="n">
         <v>7.014850312152777</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1724,10 +1636,8 @@
       <c r="G46" t="n">
         <v>6.723988380825617</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1752,10 +1662,8 @@
       <c r="G47" t="n">
         <v>8.092797653979552</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1780,10 +1688,8 @@
       <c r="G48" t="n">
         <v>9.734219755044368</v>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1808,10 +1714,8 @@
       <c r="G49" t="n">
         <v>11.49579115619599</v>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1836,10 +1740,8 @@
       <c r="G50" t="n">
         <v>7.235851461371529</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1864,10 +1766,8 @@
       <c r="G51" t="n">
         <v>8.700125631896221</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1892,10 +1792,8 @@
       <c r="G52" t="n">
         <v>9.589459633609183</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1920,10 +1818,8 @@
       <c r="G53" t="n">
         <v>8.392564390815972</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1948,10 +1844,8 @@
       <c r="G54" t="n">
         <v>8.670016460677083</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1976,10 +1870,8 @@
       <c r="G55" t="n">
         <v>7.322679918140431</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2004,10 +1896,8 @@
       <c r="G56" t="n">
         <v>6.928563998423996</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2032,10 +1922,8 @@
       <c r="G57" t="n">
         <v>6.5724212283777</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2060,10 +1948,8 @@
       <c r="G58" t="n">
         <v>6.498845045555555</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2088,10 +1974,8 @@
       <c r="G59" t="n">
         <v>7.605998495432099</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2116,10 +2000,8 @@
       <c r="G60" t="n">
         <v>4.845890665802468</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2144,10 +2026,8 @@
       <c r="G61" t="n">
         <v>9.0051939875</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2172,10 +2052,8 @@
       <c r="G62" t="n">
         <v>7.121969845877702</v>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2200,10 +2078,8 @@
       <c r="G63" t="n">
         <v>8.292591041288579</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2228,10 +2104,8 @@
       <c r="G64" t="n">
         <v>6.237293987222222</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2256,10 +2130,8 @@
       <c r="G65" t="n">
         <v>6.966160827081405</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2284,10 +2156,8 @@
       <c r="G66" t="n">
         <v>7.033784711525849</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2312,10 +2182,8 @@
       <c r="G67" t="n">
         <v>11.41321478359375</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2340,10 +2208,8 @@
       <c r="G68" t="n">
         <v>9.718624743510803</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2368,10 +2234,8 @@
       <c r="G69" t="n">
         <v>12.64574262800733</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2396,10 +2260,8 @@
       <c r="G70" t="n">
         <v>7.005450974714506</v>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2424,10 +2286,8 @@
       <c r="G71" t="n">
         <v>7.980811097775852</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2452,10 +2312,8 @@
       <c r="G72" t="n">
         <v>9.218612608263889</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2480,10 +2338,8 @@
       <c r="G73" t="n">
         <v>10.38943194509066</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2508,10 +2364,8 @@
       <c r="G74" t="n">
         <v>8.474479033858024</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2536,10 +2390,8 @@
       <c r="G75" t="n">
         <v>4.233393152451774</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2564,10 +2416,8 @@
       <c r="G76" t="n">
         <v>8.416816307770063</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2592,10 +2442,8 @@
       <c r="G77" t="n">
         <v>13.06175516441358</v>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2620,10 +2468,8 @@
       <c r="G78" t="n">
         <v>12.79709960111111</v>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2648,10 +2494,8 @@
       <c r="G79" t="n">
         <v>9.021599408888891</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2676,10 +2520,8 @@
       <c r="G80" t="n">
         <v>4.157309246010803</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2704,10 +2546,8 @@
       <c r="G81" t="n">
         <v>8.527254776635804</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2732,10 +2572,8 @@
       <c r="G82" t="n">
         <v>4.388116988055555</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2760,10 +2598,8 @@
       <c r="G83" t="n">
         <v>8.947018870044367</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2788,10 +2624,8 @@
       <c r="G84" t="n">
         <v>8.848974855061728</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2816,10 +2650,8 @@
       <c r="G85" t="n">
         <v>4.84557188109375</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2844,10 +2676,8 @@
       <c r="G86" t="n">
         <v>8.055909426371528</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2872,10 +2702,8 @@
       <c r="G87" t="n">
         <v>8.144509478732637</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2900,10 +2728,8 @@
       <c r="G88" t="n">
         <v>7.380716554228395</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2928,10 +2754,8 @@
       <c r="G89" t="n">
         <v>6.606111798302469</v>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2956,10 +2780,8 @@
       <c r="G90" t="n">
         <v>9.464131134066358</v>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2984,10 +2806,8 @@
       <c r="G91" t="n">
         <v>8.645198827899305</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3012,10 +2832,8 @@
       <c r="G92" t="n">
         <v>7.417157004413582</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3040,10 +2858,8 @@
       <c r="G93" t="n">
         <v>6.01529438267747</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3068,10 +2884,8 @@
       <c r="G94" t="n">
         <v>7.96034269828511</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3096,10 +2910,8 @@
       <c r="G95" t="n">
         <v>7.738480814025849</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3124,10 +2936,8 @@
       <c r="G96" t="n">
         <v>8.147841622152775</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3152,10 +2962,8 @@
       <c r="G97" t="n">
         <v>4.976453140414738</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3180,10 +2988,8 @@
       <c r="G98" t="n">
         <v>6.392086950208334</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3208,10 +3014,8 @@
       <c r="G99" t="n">
         <v>6.87809236970486</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3236,10 +3040,8 @@
       <c r="G100" t="n">
         <v>5.409505247986111</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3264,10 +3066,8 @@
       <c r="G101" t="n">
         <v>5.843982602430555</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -3292,10 +3092,8 @@
       <c r="G102" t="n">
         <v>8.353516495538194</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -3320,10 +3118,8 @@
       <c r="G103" t="n">
         <v>7.01084901867284</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3348,10 +3144,8 @@
       <c r="G104" t="n">
         <v>5.589316665640433</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3376,10 +3170,8 @@
       <c r="G105" t="n">
         <v>6.270585904349923</v>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3404,10 +3196,8 @@
       <c r="G106" t="n">
         <v>7.961696071849922</v>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -3432,10 +3222,8 @@
       <c r="G107" t="n">
         <v>6.798806014211035</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -3460,10 +3248,8 @@
       <c r="G108" t="n">
         <v>4.640158695677084</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -3488,10 +3274,8 @@
       <c r="G109" t="n">
         <v>5.831088197098765</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -3516,10 +3300,8 @@
       <c r="G110" t="n">
         <v>7.245484565461035</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3544,10 +3326,8 @@
       <c r="G111" t="n">
         <v>5.080980653840665</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3572,10 +3352,8 @@
       <c r="G112" t="n">
         <v>6.776399408840664</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -3600,10 +3378,8 @@
       <c r="G113" t="n">
         <v>5.159887147359182</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3628,10 +3404,8 @@
       <c r="G114" t="n">
         <v>4.687900252498071</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3656,10 +3430,8 @@
       <c r="G115" t="n">
         <v>8.339379176201776</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3684,10 +3456,8 @@
       <c r="G116" t="n">
         <v>4.315335182204861</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3712,10 +3482,8 @@
       <c r="G117" t="n">
         <v>7.465694332584876</v>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3740,10 +3508,8 @@
       <c r="G118" t="n">
         <v>4.600463248285108</v>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3768,10 +3534,8 @@
       <c r="G119" t="n">
         <v>4.279647070414738</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3796,10 +3560,8 @@
       <c r="G120" t="n">
         <v>8.207290967222221</v>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3824,10 +3586,8 @@
       <c r="G121" t="n">
         <v>5.025559272152777</v>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3852,10 +3612,8 @@
       <c r="G122" t="n">
         <v>7.301939358701775</v>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3880,10 +3638,8 @@
       <c r="G123" t="n">
         <v>5.210592544166667</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3908,10 +3664,8 @@
       <c r="G124" t="n">
         <v>6.867653106111111</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3936,10 +3690,8 @@
       <c r="G125" t="n">
         <v>7.34801168249807</v>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3964,10 +3716,8 @@
       <c r="G126" t="n">
         <v>7.21858747249807</v>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3992,10 +3742,8 @@
       <c r="G127" t="n">
         <v>4.918140819998071</v>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -4020,10 +3768,8 @@
       <c r="G128" t="n">
         <v>9.138483734598765</v>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -4048,10 +3794,8 @@
       <c r="G129" t="n">
         <v>8.75410781351659</v>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -4076,10 +3820,8 @@
       <c r="G130" t="n">
         <v>6.61324492</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -4104,10 +3846,8 @@
       <c r="G131" t="n">
         <v>6.061443173950618</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -4132,10 +3872,8 @@
       <c r="G132" t="n">
         <v>5.914836029992284</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -4160,10 +3898,8 @@
       <c r="G133" t="n">
         <v>5.623897119010417</v>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -4188,10 +3924,8 @@
       <c r="G134" t="n">
         <v>7.18596296638889</v>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4216,10 +3950,8 @@
       <c r="G135" t="n">
         <v>6.108820724843749</v>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4244,10 +3976,8 @@
       <c r="G136" t="n">
         <v>8.958774347006173</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4272,10 +4002,8 @@
       <c r="G137" t="n">
         <v>7.486733465785107</v>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4300,10 +4028,8 @@
       <c r="G138" t="n">
         <v>7.905542447590664</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -4328,10 +4054,8 @@
       <c r="G139" t="n">
         <v>9.298397112283952</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Adelante</t>
-        </is>
+      <c r="H139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -4356,10 +4080,8 @@
       <c r="G140" t="n">
         <v>19.37936852564043</v>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H140" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -4384,10 +4106,8 @@
       <c r="G141" t="n">
         <v>20.74627636552469</v>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4412,10 +4132,8 @@
       <c r="G142" t="n">
         <v>26.28202376526042</v>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H142" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4440,10 +4158,8 @@
       <c r="G143" t="n">
         <v>20.9554037645814</v>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H143" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -4468,10 +4184,8 @@
       <c r="G144" t="n">
         <v>23.3679818866358</v>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H144" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -4496,10 +4210,8 @@
       <c r="G145" t="n">
         <v>23.89067716518326</v>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H145" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4524,10 +4236,8 @@
       <c r="G146" t="n">
         <v>19.77739288823302</v>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H146" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -4552,10 +4262,8 @@
       <c r="G147" t="n">
         <v>22.03821975526042</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H147" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -4580,10 +4288,8 @@
       <c r="G148" t="n">
         <v>22.3253043721277</v>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H148" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -4608,10 +4314,8 @@
       <c r="G149" t="n">
         <v>21.91238888320988</v>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H149" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -4636,10 +4340,8 @@
       <c r="G150" t="n">
         <v>20.4358146392284</v>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H150" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -4664,10 +4366,8 @@
       <c r="G151" t="n">
         <v>19.80523094666667</v>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -4692,10 +4392,8 @@
       <c r="G152" t="n">
         <v>23.5064558096277</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H152" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -4720,10 +4418,8 @@
       <c r="G153" t="n">
         <v>23.70718662291474</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H153" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -4748,10 +4444,8 @@
       <c r="G154" t="n">
         <v>20.38526065978395</v>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4776,10 +4470,8 @@
       <c r="G155" t="n">
         <v>26.46825881026042</v>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4804,10 +4496,8 @@
       <c r="G156" t="n">
         <v>28.54811389972029</v>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H156" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -4832,10 +4522,8 @@
       <c r="G157" t="n">
         <v>21.07273233631944</v>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H157" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -4860,10 +4548,8 @@
       <c r="G158" t="n">
         <v>21.20560767595486</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H158" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -4888,10 +4574,8 @@
       <c r="G159" t="n">
         <v>18.82338010434992</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H159" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4916,10 +4600,8 @@
       <c r="G160" t="n">
         <v>16.5743568878395</v>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H160" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -4944,10 +4626,8 @@
       <c r="G161" t="n">
         <v>16.5419776366493</v>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H161" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -4972,10 +4652,8 @@
       <c r="G162" t="n">
         <v>19.06667948286266</v>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H162" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -5000,10 +4678,8 @@
       <c r="G163" t="n">
         <v>20.06794958601659</v>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H163" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -5028,10 +4704,8 @@
       <c r="G164" t="n">
         <v>17.68246576944445</v>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H164" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5056,10 +4730,8 @@
       <c r="G165" t="n">
         <v>15.24081631823302</v>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H165" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -5084,10 +4756,8 @@
       <c r="G166" t="n">
         <v>14.3636140675</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -5112,10 +4782,8 @@
       <c r="G167" t="n">
         <v>18.50494794944252</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -5140,10 +4808,8 @@
       <c r="G168" t="n">
         <v>21.21828468570988</v>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -5168,10 +4834,8 @@
       <c r="G169" t="n">
         <v>19.42621189282215</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -5196,10 +4860,8 @@
       <c r="G170" t="n">
         <v>17.46486968728395</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H170" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -5224,10 +4886,8 @@
       <c r="G171" t="n">
         <v>17.06598482902585</v>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H171" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -5252,10 +4912,8 @@
       <c r="G172" t="n">
         <v>21.53520829381945</v>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H172" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -5280,10 +4938,8 @@
       <c r="G173" t="n">
         <v>19.82865212638117</v>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H173" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5308,10 +4964,8 @@
       <c r="G174" t="n">
         <v>26.50907324675154</v>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H174" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -5336,10 +4990,8 @@
       <c r="G175" t="n">
         <v>22.13811284906636</v>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H175" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -5364,10 +5016,8 @@
       <c r="G176" t="n">
         <v>24.74140267109375</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -5392,10 +5042,8 @@
       <c r="G177" t="n">
         <v>24.91327009762153</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H177" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -5420,10 +5068,8 @@
       <c r="G178" t="n">
         <v>23.80723501305555</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5448,10 +5094,8 @@
       <c r="G179" t="n">
         <v>19.87019616692708</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5476,10 +5120,8 @@
       <c r="G180" t="n">
         <v>26.69013214465278</v>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H180" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -5504,10 +5146,8 @@
       <c r="G181" t="n">
         <v>18.29980213354167</v>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H181" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -5532,10 +5172,8 @@
       <c r="G182" t="n">
         <v>23.62630089553819</v>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H182" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5560,10 +5198,8 @@
       <c r="G183" t="n">
         <v>20.34115228941358</v>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H183" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -5588,10 +5224,8 @@
       <c r="G184" t="n">
         <v>25.88123201240548</v>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H184" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -5616,10 +5250,8 @@
       <c r="G185" t="n">
         <v>22.64238230906636</v>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H185" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -5644,10 +5276,8 @@
       <c r="G186" t="n">
         <v>21.99584359428819</v>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H186" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -5672,10 +5302,8 @@
       <c r="G187" t="n">
         <v>24.08768078513696</v>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H187" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -5700,10 +5328,8 @@
       <c r="G188" t="n">
         <v>17.74008703489969</v>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H188" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -5728,10 +5354,8 @@
       <c r="G189" t="n">
         <v>11.94271948219136</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H189" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -5756,10 +5380,8 @@
       <c r="G190" t="n">
         <v>17.79727678137153</v>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H190" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -5784,10 +5406,8 @@
       <c r="G191" t="n">
         <v>20.273260264375</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H191" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -5812,10 +5432,8 @@
       <c r="G192" t="n">
         <v>17.90804009073302</v>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H192" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5840,10 +5458,8 @@
       <c r="G193" t="n">
         <v>22.33021369055363</v>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H193" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -5868,10 +5484,8 @@
       <c r="G194" t="n">
         <v>13.95364212296104</v>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H194" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -5896,10 +5510,8 @@
       <c r="G195" t="n">
         <v>19.28047143839506</v>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H195" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -5924,10 +5536,8 @@
       <c r="G196" t="n">
         <v>17.01714357388696</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H196" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -5952,10 +5562,8 @@
       <c r="G197" t="n">
         <v>16.06882887591821</v>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H197" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5980,10 +5588,8 @@
       <c r="G198" t="n">
         <v>18.22678369249228</v>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H198" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -6008,10 +5614,8 @@
       <c r="G199" t="n">
         <v>19.11106494777585</v>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H199" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -6036,10 +5640,8 @@
       <c r="G200" t="n">
         <v>20.52022809048611</v>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H200" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -6064,10 +5666,8 @@
       <c r="G201" t="n">
         <v>18.98001049360918</v>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H201" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -6092,10 +5692,8 @@
       <c r="G202" t="n">
         <v>19.1640848325</v>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -6120,10 +5718,8 @@
       <c r="G203" t="n">
         <v>18.76210970277778</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H203" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -6148,10 +5744,8 @@
       <c r="G204" t="n">
         <v>20.07025255282214</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H204" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -6176,10 +5770,8 @@
       <c r="G205" t="n">
         <v>22.67819509291474</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H205" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -6204,10 +5796,8 @@
       <c r="G206" t="n">
         <v>21.77518950365548</v>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H206" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -6232,10 +5822,8 @@
       <c r="G207" t="n">
         <v>21.66971988581597</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H207" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -6260,10 +5848,8 @@
       <c r="G208" t="n">
         <v>21.38035846189622</v>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -6288,10 +5874,8 @@
       <c r="G209" t="n">
         <v>19.11696981448881</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H209" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -6316,10 +5900,8 @@
       <c r="G210" t="n">
         <v>10.5584834233314</v>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H210" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -6344,10 +5926,8 @@
       <c r="G211" t="n">
         <v>17.24784609243056</v>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H211" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -6372,10 +5952,8 @@
       <c r="G212" t="n">
         <v>21.13979138615548</v>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H212" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -6400,10 +5978,8 @@
       <c r="G213" t="n">
         <v>21.09502945726659</v>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H213" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -6428,10 +6004,8 @@
       <c r="G214" t="n">
         <v>24.64611966860339</v>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H214" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -6456,10 +6030,8 @@
       <c r="G215" t="n">
         <v>23.29607394490548</v>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H215" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -6484,10 +6056,8 @@
       <c r="G216" t="n">
         <v>20.47943191774691</v>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H216" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -6512,10 +6082,8 @@
       <c r="G217" t="n">
         <v>23.22194047981289</v>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H217" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -6540,10 +6108,8 @@
       <c r="G218" t="n">
         <v>17.08467859950618</v>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H218" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -6568,10 +6134,8 @@
       <c r="G219" t="n">
         <v>23.45855367111111</v>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H219" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -6596,10 +6160,8 @@
       <c r="G220" t="n">
         <v>18.50926276783951</v>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H220" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -6624,10 +6186,8 @@
       <c r="G221" t="n">
         <v>22.74540199348765</v>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H221" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -6652,10 +6212,8 @@
       <c r="G222" t="n">
         <v>21.73756614409722</v>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H222" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -6680,10 +6238,8 @@
       <c r="G223" t="n">
         <v>20.63544068526042</v>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H223" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -6708,10 +6264,8 @@
       <c r="G224" t="n">
         <v>14.15263883137153</v>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H224" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -6736,10 +6290,8 @@
       <c r="G225" t="n">
         <v>16.77412058192708</v>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H225" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -6764,10 +6316,8 @@
       <c r="G226" t="n">
         <v>18.353591706875</v>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H226" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -6792,10 +6342,8 @@
       <c r="G227" t="n">
         <v>19.14883620962191</v>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H227" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -6820,10 +6368,8 @@
       <c r="G228" t="n">
         <v>11.62241382573881</v>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H228" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -6848,10 +6394,8 @@
       <c r="G229" t="n">
         <v>9.744954146927082</v>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H229" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -6876,10 +6420,8 @@
       <c r="G230" t="n">
         <v>9.290905450275849</v>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H230" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6904,10 +6446,8 @@
       <c r="G231" t="n">
         <v>14.51113777631944</v>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H231" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -6932,10 +6472,8 @@
       <c r="G232" t="n">
         <v>17.30436104545525</v>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H232" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -6960,10 +6498,8 @@
       <c r="G233" t="n">
         <v>14.29186607555362</v>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H233" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -6988,10 +6524,8 @@
       <c r="G234" t="n">
         <v>13.5687042558777</v>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H234" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -7016,10 +6550,8 @@
       <c r="G235" t="n">
         <v>11.01674813171103</v>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H235" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -7044,10 +6576,8 @@
       <c r="G236" t="n">
         <v>12.33755127175154</v>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H236" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -7072,10 +6602,8 @@
       <c r="G237" t="n">
         <v>16.52124817171104</v>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H237" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -7100,10 +6628,8 @@
       <c r="G238" t="n">
         <v>11.57064053393326</v>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H238" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -7128,10 +6654,8 @@
       <c r="G239" t="n">
         <v>13.95696230647956</v>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H239" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -7156,10 +6680,8 @@
       <c r="G240" t="n">
         <v>12.37313502671103</v>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -7184,10 +6706,8 @@
       <c r="G241" t="n">
         <v>11.71398429222222</v>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H241" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -7212,10 +6732,8 @@
       <c r="G242" t="n">
         <v>12.48514042541474</v>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H242" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -7240,10 +6758,8 @@
       <c r="G243" t="n">
         <v>9.895728882499998</v>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H243" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -7268,10 +6784,8 @@
       <c r="G244" t="n">
         <v>12.13034114749807</v>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H244" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -7296,10 +6810,8 @@
       <c r="G245" t="n">
         <v>12.10881313135802</v>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H245" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -7324,10 +6836,8 @@
       <c r="G246" t="n">
         <v>9.783504369488812</v>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -7352,10 +6862,8 @@
       <c r="G247" t="n">
         <v>9.550700770617283</v>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H247" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -7380,10 +6888,8 @@
       <c r="G248" t="n">
         <v>10.28998907246913</v>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H248" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -7408,10 +6914,8 @@
       <c r="G249" t="n">
         <v>8.186758772307099</v>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H249" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -7436,10 +6940,8 @@
       <c r="G250" t="n">
         <v>8.773253009442515</v>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -7464,10 +6966,8 @@
       <c r="G251" t="n">
         <v>12.20627930036844</v>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H251" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -7492,10 +6992,8 @@
       <c r="G252" t="n">
         <v>9.764505211155479</v>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H252" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -7520,10 +7018,8 @@
       <c r="G253" t="n">
         <v>10.84611651243056</v>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H253" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -7548,10 +7044,8 @@
       <c r="G254" t="n">
         <v>10.45783274522955</v>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H254" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -7576,10 +7070,8 @@
       <c r="G255" t="n">
         <v>10.83090744165895</v>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H255" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -7604,10 +7096,8 @@
       <c r="G256" t="n">
         <v>11.56440994054784</v>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -7632,10 +7122,8 @@
       <c r="G257" t="n">
         <v>15.37941958555556</v>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H257" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -7660,10 +7148,8 @@
       <c r="G258" t="n">
         <v>15.08942367175154</v>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H258" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -7688,10 +7174,8 @@
       <c r="G259" t="n">
         <v>12.07088277541474</v>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H259" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -7716,10 +7200,8 @@
       <c r="G260" t="n">
         <v>14.73108580518326</v>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -7744,10 +7226,8 @@
       <c r="G261" t="n">
         <v>11.40552899993055</v>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -7772,10 +7252,8 @@
       <c r="G262" t="n">
         <v>10.13696700365548</v>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -7800,10 +7278,8 @@
       <c r="G263" t="n">
         <v>18.19058412434993</v>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H263" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -7828,10 +7304,8 @@
       <c r="G264" t="n">
         <v>16.86497920873264</v>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H264" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -7856,10 +7330,8 @@
       <c r="G265" t="n">
         <v>22.29473670637153</v>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H265" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -7884,10 +7356,8 @@
       <c r="G266" t="n">
         <v>15.38549906728395</v>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -7912,10 +7382,8 @@
       <c r="G267" t="n">
         <v>17.7192397933777</v>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H267" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -7940,10 +7408,8 @@
       <c r="G268" t="n">
         <v>16.02784231091821</v>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H268" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -7968,10 +7434,8 @@
       <c r="G269" t="n">
         <v>16.15906378356289</v>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H269" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -7996,10 +7460,8 @@
       <c r="G270" t="n">
         <v>16.47651959887153</v>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H270" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -8024,10 +7486,8 @@
       <c r="G271" t="n">
         <v>19.78352550258488</v>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H271" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -8052,10 +7512,8 @@
       <c r="G272" t="n">
         <v>18.13721250282215</v>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H272" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -8080,10 +7538,8 @@
       <c r="G273" t="n">
         <v>14.05171578317708</v>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H273" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -8108,10 +7564,8 @@
       <c r="G274" t="n">
         <v>14.38303656111111</v>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -8136,10 +7590,8 @@
       <c r="G275" t="n">
         <v>14.56909179512153</v>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H275" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -8164,10 +7616,8 @@
       <c r="G276" t="n">
         <v>13.71005692518325</v>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -8192,10 +7642,8 @@
       <c r="G277" t="n">
         <v>19.31019141985918</v>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Atras</t>
-        </is>
+      <c r="H277" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -8220,10 +7668,8 @@
       <c r="G278" t="n">
         <v>34.30714871462192</v>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -8248,10 +7694,8 @@
       <c r="G279" t="n">
         <v>18.15808384198881</v>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -8276,10 +7720,8 @@
       <c r="G280" t="n">
         <v>18.3994762872203</v>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -8304,10 +7746,8 @@
       <c r="G281" t="n">
         <v>14.78102175772955</v>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -8332,10 +7772,8 @@
       <c r="G282" t="n">
         <v>20.22544523124807</v>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -8360,10 +7798,8 @@
       <c r="G283" t="n">
         <v>11.89809497595486</v>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -8388,10 +7824,8 @@
       <c r="G284" t="n">
         <v>13.01026635059992</v>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -8416,10 +7850,8 @@
       <c r="G285" t="n">
         <v>12.42383150654321</v>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H285" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -8444,10 +7876,8 @@
       <c r="G286" t="n">
         <v>11.45689923959876</v>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -8472,10 +7902,8 @@
       <c r="G287" t="n">
         <v>11.41463558897377</v>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -8500,10 +7928,8 @@
       <c r="G288" t="n">
         <v>10.28184411675154</v>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H288" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -8528,10 +7954,8 @@
       <c r="G289" t="n">
         <v>17.17588596123264</v>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -8556,10 +7980,8 @@
       <c r="G290" t="n">
         <v>16.96272435762152</v>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -8584,10 +8006,8 @@
       <c r="G291" t="n">
         <v>21.99306138425154</v>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292">
@@ -8612,10 +8032,8 @@
       <c r="G292" t="n">
         <v>16.335725119674</v>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="293">
@@ -8640,10 +8058,8 @@
       <c r="G293" t="n">
         <v>12.47044408381944</v>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -8668,10 +8084,8 @@
       <c r="G294" t="n">
         <v>19.819636452174</v>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H294" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="295">
@@ -8696,10 +8110,8 @@
       <c r="G295" t="n">
         <v>30.42171151763696</v>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -8724,10 +8136,8 @@
       <c r="G296" t="n">
         <v>20.9029333467284</v>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -8752,10 +8162,8 @@
       <c r="G297" t="n">
         <v>15.92104681138118</v>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H297" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="298">
@@ -8780,10 +8188,8 @@
       <c r="G298" t="n">
         <v>13.81366673993056</v>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -8808,10 +8214,8 @@
       <c r="G299" t="n">
         <v>17.01284169942709</v>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -8836,10 +8240,8 @@
       <c r="G300" t="n">
         <v>21.20125969070988</v>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -8864,10 +8266,8 @@
       <c r="G301" t="n">
         <v>14.03550057691358</v>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -8892,10 +8292,8 @@
       <c r="G302" t="n">
         <v>21.38317811847029</v>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -8920,10 +8318,8 @@
       <c r="G303" t="n">
         <v>29.10885748901042</v>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -8948,10 +8344,8 @@
       <c r="G304" t="n">
         <v>16.28671917388696</v>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -8976,10 +8370,8 @@
       <c r="G305" t="n">
         <v>23.03207832694251</v>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -9004,10 +8396,8 @@
       <c r="G306" t="n">
         <v>8.631263959097222</v>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -9032,10 +8422,8 @@
       <c r="G307" t="n">
         <v>10.98384266339506</v>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -9060,10 +8448,8 @@
       <c r="G308" t="n">
         <v>17.1258681817882</v>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -9088,10 +8474,8 @@
       <c r="G309" t="n">
         <v>7.150075390831404</v>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -9116,10 +8500,8 @@
       <c r="G310" t="n">
         <v>9.406333348333334</v>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -9144,10 +8526,8 @@
       <c r="G311" t="n">
         <v>13.08824621234375</v>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H311" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="312">
@@ -9172,10 +8552,8 @@
       <c r="G312" t="n">
         <v>8.419737843593751</v>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H312" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -9200,10 +8578,8 @@
       <c r="G313" t="n">
         <v>13.90896688934992</v>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -9228,10 +8604,8 @@
       <c r="G314" t="n">
         <v>16.44919176976659</v>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H314" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -9256,10 +8630,8 @@
       <c r="G315" t="n">
         <v>19.27371367444252</v>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
@@ -9284,10 +8656,8 @@
       <c r="G316" t="n">
         <v>22.65073199024691</v>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="317">
@@ -9312,10 +8682,8 @@
       <c r="G317" t="n">
         <v>21.72289340345486</v>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="318">
@@ -9340,10 +8708,8 @@
       <c r="G318" t="n">
         <v>13.33390214089506</v>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H318" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="319">
@@ -9368,10 +8734,8 @@
       <c r="G319" t="n">
         <v>8.913230128933257</v>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H319" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -9396,10 +8760,8 @@
       <c r="G320" t="n">
         <v>15.19806680735918</v>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -9424,10 +8786,8 @@
       <c r="G321" t="n">
         <v>7.802619058858024</v>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -9452,10 +8812,8 @@
       <c r="G322" t="n">
         <v>9.614716939704863</v>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -9480,10 +8838,8 @@
       <c r="G323" t="n">
         <v>11.05008353604167</v>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -9508,10 +8864,8 @@
       <c r="G324" t="n">
         <v>10.84912387198881</v>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -9536,10 +8890,8 @@
       <c r="G325" t="n">
         <v>10.14565493944252</v>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -9564,10 +8916,8 @@
       <c r="G326" t="n">
         <v>4.820081264714506</v>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -9592,10 +8942,8 @@
       <c r="G327" t="n">
         <v>10.88837833064622</v>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -9620,10 +8968,8 @@
       <c r="G328" t="n">
         <v>12.38931926194445</v>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -9648,10 +8994,8 @@
       <c r="G329" t="n">
         <v>12.99295807104167</v>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -9676,10 +9020,8 @@
       <c r="G330" t="n">
         <v>11.07132514406636</v>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -9704,10 +9046,8 @@
       <c r="G331" t="n">
         <v>10.23419605972222</v>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -9732,10 +9072,8 @@
       <c r="G332" t="n">
         <v>13.77289961414931</v>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H332" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -9760,10 +9098,8 @@
       <c r="G333" t="n">
         <v>12.61987719524691</v>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -9788,10 +9124,8 @@
       <c r="G334" t="n">
         <v>17.81708660083333</v>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -9816,10 +9150,8 @@
       <c r="G335" t="n">
         <v>26.318764336875</v>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -9844,10 +9176,8 @@
       <c r="G336" t="n">
         <v>25.68096441809992</v>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -9872,10 +9202,8 @@
       <c r="G337" t="n">
         <v>16.50952392331597</v>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -9900,10 +9228,8 @@
       <c r="G338" t="n">
         <v>13.23873936589506</v>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="339">
@@ -9928,10 +9254,8 @@
       <c r="G339" t="n">
         <v>15.58508310178819</v>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
@@ -9956,10 +9280,8 @@
       <c r="G340" t="n">
         <v>6.187452415275849</v>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H340" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="341">
@@ -9984,10 +9306,8 @@
       <c r="G341" t="n">
         <v>19.65314608925154</v>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H341" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="342">
@@ -10012,10 +9332,8 @@
       <c r="G342" t="n">
         <v>13.29670688617284</v>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -10040,10 +9358,8 @@
       <c r="G343" t="n">
         <v>21.67025969145062</v>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H343" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -10068,10 +9384,8 @@
       <c r="G344" t="n">
         <v>13.48042213055363</v>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H344" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -10096,10 +9410,8 @@
       <c r="G345" t="n">
         <v>11.11011554848765</v>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -10124,10 +9436,8 @@
       <c r="G346" t="n">
         <v>15.86555907770833</v>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -10152,10 +9462,8 @@
       <c r="G347" t="n">
         <v>10.12144938323302</v>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -10180,10 +9488,8 @@
       <c r="G348" t="n">
         <v>17.36581057354167</v>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -10208,10 +9514,8 @@
       <c r="G349" t="n">
         <v>15.15640161942708</v>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H349" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -10236,10 +9540,8 @@
       <c r="G350" t="n">
         <v>16.58504433314043</v>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -10264,10 +9566,8 @@
       <c r="G351" t="n">
         <v>14.27345237138118</v>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -10292,10 +9592,8 @@
       <c r="G352" t="n">
         <v>12.74246671527006</v>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H352" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -10320,10 +9618,8 @@
       <c r="G353" t="n">
         <v>17.4161327771277</v>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H353" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -10348,10 +9644,8 @@
       <c r="G354" t="n">
         <v>16.3889134898071</v>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -10376,10 +9670,8 @@
       <c r="G355" t="n">
         <v>11.66147687652585</v>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H355" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -10404,10 +9696,8 @@
       <c r="G356" t="n">
         <v>10.20336404070988</v>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H356" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -10432,10 +9722,8 @@
       <c r="G357" t="n">
         <v>21.03845250904321</v>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H357" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -10460,10 +9748,8 @@
       <c r="G358" t="n">
         <v>7.536238880677085</v>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H358" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -10488,10 +9774,8 @@
       <c r="G359" t="n">
         <v>15.06262292493055</v>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H359" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -10516,10 +9800,8 @@
       <c r="G360" t="n">
         <v>13.9256713935108</v>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H360" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -10544,10 +9826,8 @@
       <c r="G361" t="n">
         <v>11.74301501026042</v>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H361" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="362">
@@ -10572,10 +9852,8 @@
       <c r="G362" t="n">
         <v>12.37645102258488</v>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -10600,10 +9878,8 @@
       <c r="G363" t="n">
         <v>7.261853973238811</v>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -10628,10 +9904,8 @@
       <c r="G364" t="n">
         <v>10.60501861317708</v>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -10656,10 +9930,8 @@
       <c r="G365" t="n">
         <v>15.70016395015432</v>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -10684,10 +9956,8 @@
       <c r="G366" t="n">
         <v>26.26881859962192</v>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -10712,10 +9982,8 @@
       <c r="G367" t="n">
         <v>18.00163001432099</v>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H367" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -10740,10 +10008,8 @@
       <c r="G368" t="n">
         <v>18.22776187381944</v>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -10768,10 +10034,8 @@
       <c r="G369" t="n">
         <v>12.05099633397377</v>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -10796,10 +10060,8 @@
       <c r="G370" t="n">
         <v>10.32284493953511</v>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -10824,10 +10086,8 @@
       <c r="G371" t="n">
         <v>11.70933353854167</v>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H371" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -10852,10 +10112,8 @@
       <c r="G372" t="n">
         <v>14.11474300859375</v>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H372" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -10880,10 +10138,8 @@
       <c r="G373" t="n">
         <v>15.66949842914931</v>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H373" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -10908,10 +10164,8 @@
       <c r="G374" t="n">
         <v>20.56596872258487</v>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H374" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="375">
@@ -10936,10 +10190,8 @@
       <c r="G375" t="n">
         <v>16.24619965545525</v>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H375" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -10964,10 +10216,8 @@
       <c r="G376" t="n">
         <v>23.45298156817708</v>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -10992,10 +10242,8 @@
       <c r="G377" t="n">
         <v>20.51391381665895</v>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H377" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="378">
@@ -11020,10 +10268,8 @@
       <c r="G378" t="n">
         <v>13.31065952248264</v>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H378" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -11048,10 +10294,8 @@
       <c r="G379" t="n">
         <v>30.03248426972222</v>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H379" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -11076,10 +10320,8 @@
       <c r="G380" t="n">
         <v>18.65313546606288</v>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -11104,10 +10346,8 @@
       <c r="G381" t="n">
         <v>14.53149660552469</v>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H381" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -11132,10 +10372,8 @@
       <c r="G382" t="n">
         <v>34.35359582151042</v>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -11160,10 +10398,8 @@
       <c r="G383" t="n">
         <v>21.59970738048611</v>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -11188,10 +10424,8 @@
       <c r="G384" t="n">
         <v>20.80478800036265</v>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H384" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="385">
@@ -11216,10 +10450,8 @@
       <c r="G385" t="n">
         <v>10.59526493134067</v>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H385" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="386">
@@ -11244,10 +10476,8 @@
       <c r="G386" t="n">
         <v>25.10012890151042</v>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -11272,10 +10502,8 @@
       <c r="G387" t="n">
         <v>18.88083945803819</v>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -11300,10 +10528,8 @@
       <c r="G388" t="n">
         <v>13.85789448283951</v>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -11328,10 +10554,8 @@
       <c r="G389" t="n">
         <v>15.14571232520833</v>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -11356,10 +10580,8 @@
       <c r="G390" t="n">
         <v>9.770167974166668</v>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -11384,10 +10606,8 @@
       <c r="G391" t="n">
         <v>21.18604980206597</v>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H391" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="392">
@@ -11412,10 +10632,8 @@
       <c r="G392" t="n">
         <v>23.14257719795525</v>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H392" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="393">
@@ -11440,10 +10658,8 @@
       <c r="G393" t="n">
         <v>17.23201472481289</v>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -11468,10 +10684,8 @@
       <c r="G394" t="n">
         <v>13.14030918656636</v>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H394" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="395">
@@ -11496,10 +10710,8 @@
       <c r="G395" t="n">
         <v>8.499332738562885</v>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H395" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -11524,10 +10736,8 @@
       <c r="G396" t="n">
         <v>19.66909920554784</v>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -11552,10 +10762,8 @@
       <c r="G397" t="n">
         <v>5.156748913333334</v>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H397" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="398">
@@ -11580,10 +10788,8 @@
       <c r="G398" t="n">
         <v>9.334665524375</v>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H398" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="399">
@@ -11608,10 +10814,8 @@
       <c r="G399" t="n">
         <v>12.14511925331597</v>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -11636,10 +10840,8 @@
       <c r="G400" t="n">
         <v>15.7374133583314</v>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H400" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="401">
@@ -11664,10 +10866,8 @@
       <c r="G401" t="n">
         <v>14.50396941452932</v>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H401" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -11692,10 +10892,8 @@
       <c r="G402" t="n">
         <v>16.29659891083141</v>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -11720,10 +10918,8 @@
       <c r="G403" t="n">
         <v>18.06528708888889</v>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -11748,10 +10944,8 @@
       <c r="G404" t="n">
         <v>19.18992543978395</v>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -11776,10 +10970,8 @@
       <c r="G405" t="n">
         <v>21.59276523245178</v>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H405" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -11804,10 +10996,8 @@
       <c r="G406" t="n">
         <v>11.38036777059992</v>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -11832,10 +11022,8 @@
       <c r="G407" t="n">
         <v>17.42568444524692</v>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -11860,10 +11048,8 @@
       <c r="G408" t="n">
         <v>8.094012723423996</v>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -11888,10 +11074,8 @@
       <c r="G409" t="n">
         <v>6.655776529097221</v>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -11916,10 +11100,8 @@
       <c r="G410" t="n">
         <v>8.385424261450616</v>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -11944,10 +11126,8 @@
       <c r="G411" t="n">
         <v>4.393702373192515</v>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H411" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="412">
@@ -11972,10 +11152,8 @@
       <c r="G412" t="n">
         <v>7.699752453541667</v>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -12000,10 +11178,8 @@
       <c r="G413" t="n">
         <v>7.544450177777779</v>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -12028,10 +11204,8 @@
       <c r="G414" t="n">
         <v>6.847581212770062</v>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -12056,10 +11230,8 @@
       <c r="G415" t="n">
         <v>13.27286226601659</v>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>Derecha</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -12084,10 +11256,8 @@
       <c r="G416" t="n">
         <v>17.30006978526042</v>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -12112,10 +11282,8 @@
       <c r="G417" t="n">
         <v>21.58186916906636</v>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -12140,10 +11308,8 @@
       <c r="G418" t="n">
         <v>25.07779219995178</v>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -12168,10 +11334,8 @@
       <c r="G419" t="n">
         <v>37.25172197402586</v>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -12196,10 +11360,8 @@
       <c r="G420" t="n">
         <v>35.26515703777778</v>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H420" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="421">
@@ -12224,10 +11386,8 @@
       <c r="G421" t="n">
         <v>38.28841739356289</v>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H421" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="422">
@@ -12252,10 +11412,8 @@
       <c r="G422" t="n">
         <v>35.3299673117284</v>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H422" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="423">
@@ -12280,10 +11438,8 @@
       <c r="G423" t="n">
         <v>26.06381826367284</v>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -12308,10 +11464,8 @@
       <c r="G424" t="n">
         <v>26.24065837277778</v>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -12336,10 +11490,8 @@
       <c r="G425" t="n">
         <v>34.78776353414931</v>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -12364,10 +11516,8 @@
       <c r="G426" t="n">
         <v>32.17430099859375</v>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -12392,10 +11542,8 @@
       <c r="G427" t="n">
         <v>19.49694652161844</v>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -12420,10 +11568,8 @@
       <c r="G428" t="n">
         <v>22.20618147719136</v>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -12448,10 +11594,8 @@
       <c r="G429" t="n">
         <v>17.11595441953511</v>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -12476,10 +11620,8 @@
       <c r="G430" t="n">
         <v>21.01359640805556</v>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -12504,10 +11646,8 @@
       <c r="G431" t="n">
         <v>17.49398154154321</v>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -12532,10 +11672,8 @@
       <c r="G432" t="n">
         <v>14.10451657452932</v>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -12560,10 +11698,8 @@
       <c r="G433" t="n">
         <v>15.55928344536844</v>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -12588,10 +11724,8 @@
       <c r="G434" t="n">
         <v>8.297531119488811</v>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -12616,10 +11750,8 @@
       <c r="G435" t="n">
         <v>15.30215514221451</v>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -12644,10 +11776,8 @@
       <c r="G436" t="n">
         <v>17.88401876637153</v>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -12672,10 +11802,8 @@
       <c r="G437" t="n">
         <v>22.93888253581597</v>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -12700,10 +11828,8 @@
       <c r="G438" t="n">
         <v>26.76203464573302</v>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -12728,10 +11854,8 @@
       <c r="G439" t="n">
         <v>20.06329062950617</v>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -12756,10 +11880,8 @@
       <c r="G440" t="n">
         <v>30.16270446987654</v>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -12784,10 +11906,8 @@
       <c r="G441" t="n">
         <v>22.42711461317708</v>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -12812,10 +11932,8 @@
       <c r="G442" t="n">
         <v>23.07065133076389</v>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -12840,10 +11958,8 @@
       <c r="G443" t="n">
         <v>22.12362604317708</v>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -12868,10 +11984,8 @@
       <c r="G444" t="n">
         <v>19.59392484582562</v>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H444" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="445">
@@ -12896,10 +12010,8 @@
       <c r="G445" t="n">
         <v>14.76593662689622</v>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H445" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="446">
@@ -12924,10 +12036,8 @@
       <c r="G446" t="n">
         <v>16.99767832470486</v>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H446" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="447">
@@ -12952,10 +12062,8 @@
       <c r="G447" t="n">
         <v>25.75692793317709</v>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H447" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="448">
@@ -12980,10 +12088,8 @@
       <c r="G448" t="n">
         <v>28.31644582948881</v>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H448" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="449">
@@ -13008,10 +12114,8 @@
       <c r="G449" t="n">
         <v>24.8641928708314</v>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H449" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="450">
@@ -13036,10 +12140,8 @@
       <c r="G450" t="n">
         <v>20.86886934774692</v>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -13064,10 +12166,8 @@
       <c r="G451" t="n">
         <v>24.99518698073881</v>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -13092,10 +12192,8 @@
       <c r="G452" t="n">
         <v>19.48067305860918</v>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -13120,10 +12218,8 @@
       <c r="G453" t="n">
         <v>15.50893247397955</v>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
@@ -13148,10 +12244,8 @@
       <c r="G454" t="n">
         <v>18.69006978359375</v>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H454" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="455">
@@ -13176,10 +12270,8 @@
       <c r="G455" t="n">
         <v>19.32584917365548</v>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H455" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="456">
@@ -13204,10 +12296,8 @@
       <c r="G456" t="n">
         <v>25.89940463361111</v>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H456" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="457">
@@ -13232,10 +12322,8 @@
       <c r="G457" t="n">
         <v>28.46197873270834</v>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H457" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="458">
@@ -13260,10 +12348,8 @@
       <c r="G458" t="n">
         <v>29.10475091583334</v>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H458" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="459">
@@ -13288,10 +12374,8 @@
       <c r="G459" t="n">
         <v>22.59236582814622</v>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H459" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="460">
@@ -13316,10 +12400,8 @@
       <c r="G460" t="n">
         <v>19.94673970444445</v>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H460" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="461">
@@ -13344,10 +12426,8 @@
       <c r="G461" t="n">
         <v>29.29852981953511</v>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H461" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="462">
@@ -13372,10 +12452,8 @@
       <c r="G462" t="n">
         <v>28.65359063909722</v>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H462" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="463">
@@ -13400,10 +12478,8 @@
       <c r="G463" t="n">
         <v>33.50449550401041</v>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H463" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="464">
@@ -13428,10 +12504,8 @@
       <c r="G464" t="n">
         <v>27.40806122129437</v>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H464" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -13456,10 +12530,8 @@
       <c r="G465" t="n">
         <v>24.54487371814621</v>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H465" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="466">
@@ -13484,10 +12556,8 @@
       <c r="G466" t="n">
         <v>30.13131916916474</v>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H466" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="467">
@@ -13512,10 +12582,8 @@
       <c r="G467" t="n">
         <v>27.88422527526042</v>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H467" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="468">
@@ -13540,10 +12608,8 @@
       <c r="G468" t="n">
         <v>29.68227845967401</v>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H468" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="469">
@@ -13568,10 +12634,8 @@
       <c r="G469" t="n">
         <v>20.0103130304321</v>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H469" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -13596,10 +12660,8 @@
       <c r="G470" t="n">
         <v>17.7783598941358</v>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H470" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="471">
@@ -13624,10 +12686,8 @@
       <c r="G471" t="n">
         <v>19.66193899786266</v>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H471" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="472">
@@ -13652,10 +12712,8 @@
       <c r="G472" t="n">
         <v>21.05559599582562</v>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H472" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="473">
@@ -13680,10 +12738,8 @@
       <c r="G473" t="n">
         <v>30.86128224131944</v>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H473" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="474">
@@ -13708,10 +12764,8 @@
       <c r="G474" t="n">
         <v>33.66729009637153</v>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H474" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="475">
@@ -13736,10 +12790,8 @@
       <c r="G475" t="n">
         <v>12.01233831694445</v>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H475" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="476">
@@ -13764,10 +12816,8 @@
       <c r="G476" t="n">
         <v>17.3643859180382</v>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -13792,10 +12842,8 @@
       <c r="G477" t="n">
         <v>15.91027195039931</v>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -13820,10 +12868,8 @@
       <c r="G478" t="n">
         <v>22.57734552459877</v>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -13848,10 +12894,8 @@
       <c r="G479" t="n">
         <v>27.79340345700617</v>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -13876,10 +12920,8 @@
       <c r="G480" t="n">
         <v>24.18689421026042</v>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H480" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="481">
@@ -13904,10 +12946,8 @@
       <c r="G481" t="n">
         <v>25.58175437360918</v>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H481" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="482">
@@ -13932,10 +12972,8 @@
       <c r="G482" t="n">
         <v>24.94024421911844</v>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H482" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="483">
@@ -13960,10 +12998,8 @@
       <c r="G483" t="n">
         <v>31.15757122305556</v>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H483" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="484">
@@ -13988,10 +13024,8 @@
       <c r="G484" t="n">
         <v>18.46955842520833</v>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -14016,10 +13050,8 @@
       <c r="G485" t="n">
         <v>21.40917496638117</v>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H485" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -14044,10 +13076,8 @@
       <c r="G486" t="n">
         <v>26.82120108608025</v>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H486" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -14072,10 +13102,8 @@
       <c r="G487" t="n">
         <v>25.88227917212192</v>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H487" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="488">
@@ -14100,10 +13128,8 @@
       <c r="G488" t="n">
         <v>25.66924067567708</v>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H488" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="489">
@@ -14128,10 +13154,8 @@
       <c r="G489" t="n">
         <v>24.56630099262152</v>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -14156,10 +13180,8 @@
       <c r="G490" t="n">
         <v>23.35129114175733</v>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -14184,10 +13206,8 @@
       <c r="G491" t="n">
         <v>21.64194384865548</v>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -14212,10 +13232,8 @@
       <c r="G492" t="n">
         <v>22.55096005184414</v>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -14240,10 +13258,8 @@
       <c r="G493" t="n">
         <v>16.19383390861111</v>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H493" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="494">
@@ -14268,10 +13284,8 @@
       <c r="G494" t="n">
         <v>15.56828494611111</v>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H494" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="495">
@@ -14296,10 +13310,8 @@
       <c r="G495" t="n">
         <v>27.78781675952932</v>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -14324,10 +13336,8 @@
       <c r="G496" t="n">
         <v>22.07310201083333</v>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -14352,10 +13362,8 @@
       <c r="G497" t="n">
         <v>23.03777084152585</v>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -14380,10 +13388,8 @@
       <c r="G498" t="n">
         <v>24.8039754047203</v>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -14408,10 +13414,8 @@
       <c r="G499" t="n">
         <v>25.38960259134067</v>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -14436,10 +13440,8 @@
       <c r="G500" t="n">
         <v>23.80425904934992</v>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -14464,10 +13466,8 @@
       <c r="G501" t="n">
         <v>26.73316109608025</v>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -14492,10 +13492,8 @@
       <c r="G502" t="n">
         <v>22.54835432462191</v>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -14520,10 +13518,8 @@
       <c r="G503" t="n">
         <v>22.28117989888696</v>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H503" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -14548,10 +13544,8 @@
       <c r="G504" t="n">
         <v>24.5687744321277</v>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H504" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -14576,10 +13570,8 @@
       <c r="G505" t="n">
         <v>25.96908402777585</v>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H505" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -14604,10 +13596,8 @@
       <c r="G506" t="n">
         <v>15.56223632720486</v>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -14632,10 +13622,8 @@
       <c r="G507" t="n">
         <v>21.02128301976659</v>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -14660,10 +13648,8 @@
       <c r="G508" t="n">
         <v>27.67979206998264</v>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H508" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -14688,10 +13674,8 @@
       <c r="G509" t="n">
         <v>23.57063498901042</v>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H509" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -14716,10 +13700,8 @@
       <c r="G510" t="n">
         <v>23.89228400323881</v>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -14744,10 +13726,8 @@
       <c r="G511" t="n">
         <v>14.43788310576389</v>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14772,10 +13752,8 @@
       <c r="G512" t="n">
         <v>25.47913894823881</v>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14800,10 +13778,8 @@
       <c r="G513" t="n">
         <v>26.32292262414931</v>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14828,10 +13804,8 @@
       <c r="G514" t="n">
         <v>22.5402933878395</v>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14856,10 +13830,8 @@
       <c r="G515" t="n">
         <v>25.20223007414931</v>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14884,10 +13856,8 @@
       <c r="G516" t="n">
         <v>16.03790312536266</v>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14912,10 +13882,8 @@
       <c r="G517" t="n">
         <v>26.42109754283951</v>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -14940,10 +13908,8 @@
       <c r="G518" t="n">
         <v>17.89986469956597</v>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -14968,10 +13934,8 @@
       <c r="G519" t="n">
         <v>22.38253670962191</v>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H519" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -14996,10 +13960,8 @@
       <c r="G520" t="n">
         <v>19.05721086601081</v>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H520" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -15024,10 +13986,8 @@
       <c r="G521" t="n">
         <v>19.06101919326388</v>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H521" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -15052,10 +14012,8 @@
       <c r="G522" t="n">
         <v>21.98538232231289</v>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H522" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -15080,10 +14038,8 @@
       <c r="G523" t="n">
         <v>28.06110263472222</v>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H523" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="524">
@@ -15108,10 +14064,8 @@
       <c r="G524" t="n">
         <v>22.05149559208141</v>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H524" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="525">
@@ -15136,10 +14090,8 @@
       <c r="G525" t="n">
         <v>21.15569448805555</v>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H525" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -15164,10 +14116,8 @@
       <c r="G526" t="n">
         <v>27.51657474758487</v>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H526" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -15192,10 +14142,8 @@
       <c r="G527" t="n">
         <v>25.58267826684992</v>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H527" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -15220,10 +14168,8 @@
       <c r="G528" t="n">
         <v>22.67631240456597</v>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H528" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="529">
@@ -15248,10 +14194,8 @@
       <c r="G529" t="n">
         <v>22.14021368246914</v>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H529" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -15276,10 +14220,8 @@
       <c r="G530" t="n">
         <v>23.64822891012152</v>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H530" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="531">
@@ -15304,10 +14246,8 @@
       <c r="G531" t="n">
         <v>25.27018253277585</v>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H531" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -15332,10 +14272,8 @@
       <c r="G532" t="n">
         <v>25.12524913036844</v>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H532" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -15360,10 +14298,8 @@
       <c r="G533" t="n">
         <v>22.45477423348765</v>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H533" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -15388,10 +14324,8 @@
       <c r="G534" t="n">
         <v>13.48566622499228</v>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H534" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -15416,10 +14350,8 @@
       <c r="G535" t="n">
         <v>16.80215502737654</v>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H535" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="536">
@@ -15444,10 +14376,8 @@
       <c r="G536" t="n">
         <v>26.40871143893325</v>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H536" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="537">
@@ -15472,10 +14402,8 @@
       <c r="G537" t="n">
         <v>23.46790794045525</v>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H537" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="538">
@@ -15500,10 +14428,8 @@
       <c r="G538" t="n">
         <v>24.35076348527006</v>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H538" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="539">
@@ -15528,10 +14454,8 @@
       <c r="G539" t="n">
         <v>25.7118954017882</v>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H539" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="540">
@@ -15556,10 +14480,8 @@
       <c r="G540" t="n">
         <v>25.66158672541473</v>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H540" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="541">
@@ -15584,10 +14506,8 @@
       <c r="G541" t="n">
         <v>25.63603811675154</v>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H541" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="542">
@@ -15612,10 +14532,8 @@
       <c r="G542" t="n">
         <v>22.71672209276042</v>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H542" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="543">
@@ -15640,10 +14558,8 @@
       <c r="G543" t="n">
         <v>13.88600324109375</v>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H543" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="544">
@@ -15668,10 +14584,8 @@
       <c r="G544" t="n">
         <v>18.30798294286265</v>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H544" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="545">
@@ -15696,10 +14610,8 @@
       <c r="G545" t="n">
         <v>31.55098225567708</v>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H545" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="546">
@@ -15724,10 +14636,8 @@
       <c r="G546" t="n">
         <v>22.32068595720486</v>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H546" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="547">
@@ -15752,10 +14662,8 @@
       <c r="G547" t="n">
         <v>28.61909611754437</v>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H547" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -15780,10 +14688,8 @@
       <c r="G548" t="n">
         <v>25.20235833222222</v>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H548" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -15808,10 +14714,8 @@
       <c r="G549" t="n">
         <v>24.22034953300733</v>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H549" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -15836,10 +14740,8 @@
       <c r="G550" t="n">
         <v>30.46180051887153</v>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H550" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -15864,10 +14766,8 @@
       <c r="G551" t="n">
         <v>28.2954183579321</v>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H551" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -15892,10 +14792,8 @@
       <c r="G552" t="n">
         <v>32.00865667567709</v>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H552" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -15920,10 +14818,8 @@
       <c r="G553" t="n">
         <v>30.82128582397377</v>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>Izquierda</t>
-        </is>
+      <c r="H553" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -15948,10 +14844,8 @@
       <c r="G554" t="n">
         <v>19.81316080609375</v>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H554" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="555">
@@ -15976,10 +14870,8 @@
       <c r="G555" t="n">
         <v>23.08266077702932</v>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H555" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="556">
@@ -16004,10 +14896,8 @@
       <c r="G556" t="n">
         <v>7.800630284876541</v>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H556" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="557">
@@ -16032,10 +14922,8 @@
       <c r="G557" t="n">
         <v>24.26622763465278</v>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H557" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -16060,10 +14948,8 @@
       <c r="G558" t="n">
         <v>15.17133348393325</v>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H558" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="559">
@@ -16088,10 +14974,8 @@
       <c r="G559" t="n">
         <v>9.06297262498264</v>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H559" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="560">
@@ -16116,10 +15000,8 @@
       <c r="G560" t="n">
         <v>21.88378793120177</v>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H560" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="561">
@@ -16144,10 +15026,8 @@
       <c r="G561" t="n">
         <v>12.59436068832562</v>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H561" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="562">
@@ -16172,10 +15052,8 @@
       <c r="G562" t="n">
         <v>9.052191623765433</v>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H562" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="563">
@@ -16200,10 +15078,8 @@
       <c r="G563" t="n">
         <v>14.64085293428819</v>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H563" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="564">
@@ -16228,10 +15104,8 @@
       <c r="G564" t="n">
         <v>12.1976034083777</v>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H564" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="565">
@@ -16256,10 +15130,8 @@
       <c r="G565" t="n">
         <v>16.63490494526042</v>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H565" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="566">
@@ -16284,10 +15156,8 @@
       <c r="G566" t="n">
         <v>14.93918611354167</v>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H566" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="567">
@@ -16312,10 +15182,8 @@
       <c r="G567" t="n">
         <v>17.43403754128858</v>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H567" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="568">
@@ -16340,10 +15208,8 @@
       <c r="G568" t="n">
         <v>19.28959831854166</v>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H568" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="569">
@@ -16368,10 +15234,8 @@
       <c r="G569" t="n">
         <v>15.52802714036265</v>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H569" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="570">
@@ -16396,10 +15260,8 @@
       <c r="G570" t="n">
         <v>11.28208716638117</v>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H570" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -16424,10 +15286,8 @@
       <c r="G571" t="n">
         <v>13.16847602970486</v>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H571" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="572">
@@ -16452,10 +15312,8 @@
       <c r="G572" t="n">
         <v>26.38416832032215</v>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H572" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="573">
@@ -16480,10 +15338,8 @@
       <c r="G573" t="n">
         <v>11.9689205546277</v>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H573" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="574">
@@ -16508,10 +15364,8 @@
       <c r="G574" t="n">
         <v>22.47335041826389</v>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H574" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="575">
@@ -16536,10 +15390,8 @@
       <c r="G575" t="n">
         <v>12.20922026878858</v>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H575" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="576">
@@ -16564,10 +15416,8 @@
       <c r="G576" t="n">
         <v>20.00888268256173</v>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H576" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -16592,10 +15442,8 @@
       <c r="G577" t="n">
         <v>10.42568761959877</v>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H577" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="578">
@@ -16620,10 +15468,8 @@
       <c r="G578" t="n">
         <v>18.41478609166474</v>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H578" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="579">
@@ -16648,10 +15494,8 @@
       <c r="G579" t="n">
         <v>8.958616973593751</v>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H579" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="580">
@@ -16676,10 +15520,8 @@
       <c r="G580" t="n">
         <v>12.49490200320988</v>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H580" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="581">
@@ -16704,10 +15546,8 @@
       <c r="G581" t="n">
         <v>18.44466338020833</v>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H581" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="582">
@@ -16732,10 +15572,8 @@
       <c r="G582" t="n">
         <v>7.208915168395062</v>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H582" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="583">
@@ -16760,10 +15598,8 @@
       <c r="G583" t="n">
         <v>17.09733099300733</v>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H583" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="584">
@@ -16788,10 +15624,8 @@
       <c r="G584" t="n">
         <v>7.293197274627699</v>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H584" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="585">
@@ -16816,10 +15650,8 @@
       <c r="G585" t="n">
         <v>6.219442421319445</v>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H585" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="586">
@@ -16844,10 +15676,8 @@
       <c r="G586" t="n">
         <v>7.088441868732638</v>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H586" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="587">
@@ -16872,10 +15702,8 @@
       <c r="G587" t="n">
         <v>12.39073761258488</v>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H587" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="588">
@@ -16900,10 +15728,8 @@
       <c r="G588" t="n">
         <v>7.034878867430556</v>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H588" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="589">
@@ -16928,10 +15754,8 @@
       <c r="G589" t="n">
         <v>17.11170512943673</v>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H589" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="590">
@@ -16956,10 +15780,8 @@
       <c r="G590" t="n">
         <v>14.84813059194252</v>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H590" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="591">
@@ -16984,10 +15806,8 @@
       <c r="G591" t="n">
         <v>7.47110933138889</v>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H591" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="592">
@@ -17012,10 +15832,8 @@
       <c r="G592" t="n">
         <v>17.5183344996277</v>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H592" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="593">
@@ -17040,10 +15858,8 @@
       <c r="G593" t="n">
         <v>8.960258154714506</v>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H593" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="594">
@@ -17068,10 +15884,8 @@
       <c r="G594" t="n">
         <v>8.511358703333334</v>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H594" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="595">
@@ -17096,10 +15910,8 @@
       <c r="G595" t="n">
         <v>11.71012528450617</v>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H595" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="596">
@@ -17124,10 +15936,8 @@
       <c r="G596" t="n">
         <v>15.75048719237654</v>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H596" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="597">
@@ -17152,10 +15962,8 @@
       <c r="G597" t="n">
         <v>12.30178579555555</v>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H597" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="598">
@@ -17180,10 +15988,8 @@
       <c r="G598" t="n">
         <v>14.79999473619599</v>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H598" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="599">
@@ -17208,10 +16014,8 @@
       <c r="G599" t="n">
         <v>6.856651664427084</v>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H599" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="600">
@@ -17236,10 +16040,8 @@
       <c r="G600" t="n">
         <v>15.03844968359375</v>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H600" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="601">
@@ -17264,10 +16066,8 @@
       <c r="G601" t="n">
         <v>11.4114426983777</v>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H601" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="602">
@@ -17292,10 +16092,8 @@
       <c r="G602" t="n">
         <v>14.51612364638696</v>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H602" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="603">
@@ -17320,10 +16118,8 @@
       <c r="G603" t="n">
         <v>13.64973752854167</v>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H603" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="604">
@@ -17348,10 +16144,8 @@
       <c r="G604" t="n">
         <v>12.8894859920814</v>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H604" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="605">
@@ -17376,10 +16170,8 @@
       <c r="G605" t="n">
         <v>15.32102036684992</v>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H605" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="606">
@@ -17404,10 +16196,8 @@
       <c r="G606" t="n">
         <v>16.69362255470486</v>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H606" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="607">
@@ -17432,10 +16222,8 @@
       <c r="G607" t="n">
         <v>13.94223882323302</v>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H607" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="608">
@@ -17460,10 +16248,8 @@
       <c r="G608" t="n">
         <v>18.35150595999228</v>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H608" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="609">
@@ -17488,10 +16274,8 @@
       <c r="G609" t="n">
         <v>14.94765025987654</v>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H609" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="610">
@@ -17516,10 +16300,8 @@
       <c r="G610" t="n">
         <v>13.59039108481289</v>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H610" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="611">
@@ -17544,10 +16326,8 @@
       <c r="G611" t="n">
         <v>13.84550203045525</v>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H611" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="612">
@@ -17572,10 +16352,8 @@
       <c r="G612" t="n">
         <v>10.84437048804784</v>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H612" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="613">
@@ -17600,10 +16378,8 @@
       <c r="G613" t="n">
         <v>21.008527779375</v>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H613" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="614">
@@ -17628,10 +16404,8 @@
       <c r="G614" t="n">
         <v>12.80218280998264</v>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H614" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="615">
@@ -17656,10 +16430,8 @@
       <c r="G615" t="n">
         <v>16.31094395539931</v>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H615" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="616">
@@ -17684,10 +16456,8 @@
       <c r="G616" t="n">
         <v>18.92332079943673</v>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H616" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="617">
@@ -17712,10 +16482,8 @@
       <c r="G617" t="n">
         <v>12.36710609450617</v>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H617" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="618">
@@ -17740,10 +16508,8 @@
       <c r="G618" t="n">
         <v>14.18097933995178</v>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H618" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="619">
@@ -17768,10 +16534,8 @@
       <c r="G619" t="n">
         <v>22.47501754682099</v>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H619" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="620">
@@ -17796,10 +16560,8 @@
       <c r="G620" t="n">
         <v>16.94665605117284</v>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H620" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="621">
@@ -17824,10 +16586,8 @@
       <c r="G621" t="n">
         <v>21.52129525504436</v>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H621" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="622">
@@ -17852,10 +16612,8 @@
       <c r="G622" t="n">
         <v>7.951368455486111</v>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H622" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="623">
@@ -17880,10 +16638,8 @@
       <c r="G623" t="n">
         <v>14.28951025860339</v>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H623" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="624">
@@ -17908,10 +16664,8 @@
       <c r="G624" t="n">
         <v>17.18103510989969</v>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H624" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="625">
@@ -17936,10 +16690,8 @@
       <c r="G625" t="n">
         <v>11.6350318136034</v>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H625" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="626">
@@ -17964,10 +16716,8 @@
       <c r="G626" t="n">
         <v>15.08025108082562</v>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H626" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="627">
@@ -17992,10 +16742,8 @@
       <c r="G627" t="n">
         <v>12.38074344626543</v>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H627" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="628">
@@ -18020,10 +16768,8 @@
       <c r="G628" t="n">
         <v>14.21429767768326</v>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H628" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="629">
@@ -18048,10 +16794,8 @@
       <c r="G629" t="n">
         <v>14.99981017289931</v>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H629" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="630">
@@ -18076,10 +16820,8 @@
       <c r="G630" t="n">
         <v>6.363350080553626</v>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H630" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="631">
@@ -18104,10 +16846,8 @@
       <c r="G631" t="n">
         <v>20.11607716541474</v>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H631" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="632">
@@ -18132,10 +16872,8 @@
       <c r="G632" t="n">
         <v>9.611924339118442</v>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H632" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="633">
@@ -18160,10 +16898,8 @@
       <c r="G633" t="n">
         <v>14.77072871296103</v>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H633" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="634">
@@ -18188,10 +16924,8 @@
       <c r="G634" t="n">
         <v>7.999107455555555</v>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H634" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="635">
@@ -18216,10 +16950,8 @@
       <c r="G635" t="n">
         <v>10.87811031157215</v>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H635" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="636">
@@ -18244,10 +16976,8 @@
       <c r="G636" t="n">
         <v>19.40253437712191</v>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H636" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="637">
@@ -18272,10 +17002,8 @@
       <c r="G637" t="n">
         <v>10.09020647239969</v>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H637" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="638">
@@ -18300,10 +17028,8 @@
       <c r="G638" t="n">
         <v>22.18466667145062</v>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H638" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="639">
@@ -18328,10 +17054,8 @@
       <c r="G639" t="n">
         <v>13.43858930404321</v>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H639" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="640">
@@ -18356,10 +17080,8 @@
       <c r="G640" t="n">
         <v>18.2672616803993</v>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H640" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="641">
@@ -18384,10 +17106,8 @@
       <c r="G641" t="n">
         <v>15.32344734172839</v>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H641" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="642">
@@ -18412,10 +17132,8 @@
       <c r="G642" t="n">
         <v>14.40180959694444</v>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H642" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="643">
@@ -18440,10 +17158,8 @@
       <c r="G643" t="n">
         <v>16.10998194283951</v>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H643" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="644">
@@ -18468,10 +17184,8 @@
       <c r="G644" t="n">
         <v>16.73429849289931</v>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H644" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="645">
@@ -18496,10 +17210,8 @@
       <c r="G645" t="n">
         <v>12.25538889064043</v>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H645" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="646">
@@ -18524,10 +17236,8 @@
       <c r="G646" t="n">
         <v>16.12508110354166</v>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H646" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="647">
@@ -18552,10 +17262,8 @@
       <c r="G647" t="n">
         <v>12.94177275564622</v>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H647" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="648">
@@ -18580,10 +17288,8 @@
       <c r="G648" t="n">
         <v>9.129665249349923</v>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H648" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="649">
@@ -18608,10 +17314,8 @@
       <c r="G649" t="n">
         <v>19.5156872792882</v>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H649" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="650">
@@ -18636,10 +17340,8 @@
       <c r="G650" t="n">
         <v>9.370779441936728</v>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H650" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="651">
@@ -18664,10 +17366,8 @@
       <c r="G651" t="n">
         <v>11.51043738804784</v>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H651" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="652">
@@ -18692,10 +17392,8 @@
       <c r="G652" t="n">
         <v>15.99999496008488</v>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H652" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="653">
@@ -18720,10 +17418,8 @@
       <c r="G653" t="n">
         <v>7.645614551265431</v>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H653" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="654">
@@ -18748,10 +17444,8 @@
       <c r="G654" t="n">
         <v>12.27572337888889</v>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H654" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="655">
@@ -18776,10 +17470,8 @@
       <c r="G655" t="n">
         <v>12.28102397166666</v>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H655" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="656">
@@ -18804,10 +17496,8 @@
       <c r="G656" t="n">
         <v>8.378254467035108</v>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H656" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="657">
@@ -18832,10 +17522,8 @@
       <c r="G657" t="n">
         <v>18.20740625581597</v>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H657" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="658">
@@ -18860,10 +17548,8 @@
       <c r="G658" t="n">
         <v>14.38894916006173</v>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H658" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="659">
@@ -18888,10 +17574,8 @@
       <c r="G659" t="n">
         <v>7.287665610507329</v>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H659" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="660">
@@ -18916,10 +17600,8 @@
       <c r="G660" t="n">
         <v>12.35532707881944</v>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H660" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="661">
@@ -18944,10 +17626,8 @@
       <c r="G661" t="n">
         <v>18.48783668848766</v>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H661" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="662">
@@ -18972,10 +17652,8 @@
       <c r="G662" t="n">
         <v>12.2353519661034</v>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H662" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="663">
@@ -19000,10 +17678,8 @@
       <c r="G663" t="n">
         <v>11.62596979270833</v>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H663" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="664">
@@ -19028,10 +17704,8 @@
       <c r="G664" t="n">
         <v>14.40339792304784</v>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H664" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="665">
@@ -19056,10 +17730,8 @@
       <c r="G665" t="n">
         <v>10.33197898998264</v>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H665" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="666">
@@ -19084,10 +17756,8 @@
       <c r="G666" t="n">
         <v>19.54393645726659</v>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H666" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="667">
@@ -19112,10 +17782,8 @@
       <c r="G667" t="n">
         <v>11.43331208161844</v>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H667" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="668">
@@ -19140,10 +17808,8 @@
       <c r="G668" t="n">
         <v>16.75608638722223</v>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H668" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="669">
@@ -19168,10 +17834,8 @@
       <c r="G669" t="n">
         <v>14.25918823443673</v>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H669" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="670">
@@ -19196,10 +17860,8 @@
       <c r="G670" t="n">
         <v>14.49662150820988</v>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H670" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="671">
@@ -19224,10 +17886,8 @@
       <c r="G671" t="n">
         <v>16.19779497925154</v>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H671" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="672">
@@ -19252,10 +17912,8 @@
       <c r="G672" t="n">
         <v>11.58648782348765</v>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H672" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="673">
@@ -19280,10 +17938,8 @@
       <c r="G673" t="n">
         <v>20.2808563097203</v>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H673" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="674">
@@ -19308,10 +17964,8 @@
       <c r="G674" t="n">
         <v>15.13792909777778</v>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H674" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="675">
@@ -19336,10 +17990,8 @@
       <c r="G675" t="n">
         <v>26.25493488402585</v>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H675" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="676">
@@ -19364,10 +18016,8 @@
       <c r="G676" t="n">
         <v>13.77392899916667</v>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H676" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="677">
@@ -19392,10 +18042,8 @@
       <c r="G677" t="n">
         <v>17.89773191582562</v>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H677" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="678">
@@ -19420,10 +18068,8 @@
       <c r="G678" t="n">
         <v>13.56798521934414</v>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H678" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="679">
@@ -19448,10 +18094,8 @@
       <c r="G679" t="n">
         <v>17.28308173865548</v>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H679" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="680">
@@ -19476,10 +18120,8 @@
       <c r="G680" t="n">
         <v>18.58556999703511</v>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H680" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="681">
@@ -19504,10 +18146,8 @@
       <c r="G681" t="n">
         <v>18.30322541259066</v>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H681" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="682">
@@ -19532,10 +18172,8 @@
       <c r="G682" t="n">
         <v>11.04361442157214</v>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H682" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="683">
@@ -19560,10 +18198,8 @@
       <c r="G683" t="n">
         <v>21.44661037123264</v>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H683" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="684">
@@ -19588,10 +18224,8 @@
       <c r="G684" t="n">
         <v>9.840878711358027</v>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H684" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="685">
@@ -19616,10 +18250,8 @@
       <c r="G685" t="n">
         <v>19.23715013595486</v>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H685" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="686">
@@ -19644,10 +18276,8 @@
       <c r="G686" t="n">
         <v>14.69091890706597</v>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H686" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="687">
@@ -19672,10 +18302,8 @@
       <c r="G687" t="n">
         <v>11.415426274375</v>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H687" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="688">
@@ -19700,10 +18328,8 @@
       <c r="G688" t="n">
         <v>11.33353133110918</v>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H688" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="689">
@@ -19728,10 +18354,8 @@
       <c r="G689" t="n">
         <v>9.944988835831403</v>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H689" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="690">
@@ -19756,10 +18380,8 @@
       <c r="G690" t="n">
         <v>9.873008745277778</v>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H690" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="691">
@@ -19784,10 +18406,8 @@
       <c r="G691" t="n">
         <v>16.33664223182099</v>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>Stop</t>
-        </is>
+      <c r="H691" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/caracteristicas.xlsx
+++ b/datasets/caracteristicas.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Aceleracion_aX</t>
+          <t>Varianza_gX</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Aceleracion_aY</t>
+          <t>Varianza_gY</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Aceleracion_aZ</t>
+          <t>Varianza_gZ</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
